--- a/testData/WebForm/WF_RRYN_OneY_TwoYN_Test.xlsx
+++ b/testData/WebForm/WF_RRYN_OneY_TwoYN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="112">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -264,21 +264,12 @@
     <t>two</t>
   </si>
   <si>
-    <t>9840031214</t>
-  </si>
-  <si>
-    <t>9840002058</t>
-  </si>
-  <si>
     <t>9840051646</t>
   </si>
   <si>
     <t>9840008763</t>
   </si>
   <si>
-    <t>9840040228</t>
-  </si>
-  <si>
     <t>Carol</t>
   </si>
   <si>
@@ -291,9 +282,6 @@
     <t>Stephanie</t>
   </si>
   <si>
-    <t>WF_RRYN_OneY_TwoN</t>
-  </si>
-  <si>
     <t>Jennifer</t>
   </si>
   <si>
@@ -304,13 +292,77 @@
   </si>
   <si>
     <t>Nancy</t>
+  </si>
+  <si>
+    <t>WF_RRYN_OneY_TwoYN</t>
+  </si>
+  <si>
+    <t>9840008502</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840025712</t>
+  </si>
+  <si>
+    <t>9840057800</t>
+  </si>
+  <si>
+    <t>9840034729</t>
+  </si>
+  <si>
+    <t>9840081359</t>
+  </si>
+  <si>
+    <t>9840088639</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9840027230</t>
+  </si>
+  <si>
+    <t>9840011709</t>
+  </si>
+  <si>
+    <t>9840062899</t>
+  </si>
+  <si>
+    <t>9840011899</t>
+  </si>
+  <si>
+    <t>9840057230</t>
+  </si>
+  <si>
+    <t>9840082787</t>
+  </si>
+  <si>
+    <t>9840039876</t>
+  </si>
+  <si>
+    <t>9840029060</t>
+  </si>
+  <si>
+    <t>9840079310</t>
+  </si>
+  <si>
+    <t>9840048248</t>
+  </si>
+  <si>
+    <t>9840067677</t>
+  </si>
+  <si>
+    <t>9840085001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,8 +392,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -406,6 +471,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -689,93 +756,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BB2" sqref="BB2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="15.26953125" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.453125" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="54" width="11.453125" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="19" max="19" customWidth="true" width="10.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" customWidth="true" width="10.54296875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="25" max="25" customWidth="true" width="10.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="32" max="33" customWidth="true" width="9.6328125"/>
+    <col min="34" max="35" customWidth="true" width="15.26953125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="37" max="37" customWidth="true" width="17.81640625"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
+    <col min="42" max="43" customWidth="true" width="15.26953125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="45" max="46" customWidth="true" width="11.453125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="48" max="54" customWidth="true" width="11.453125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -784,139 +851,139 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -930,31 +997,31 @@
       <c r="C2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>81</v>
+      <c r="F2" t="s" s="0">
+        <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -963,47 +1030,47 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
-        <v>48</v>
+      <c r="O2" t="s" s="0">
+        <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="T2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="T2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Z2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>17</v>
@@ -1012,7 +1079,7 @@
         <v>48</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>17</v>
@@ -1021,7 +1088,7 @@
         <v>48</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>17</v>
@@ -1029,23 +1096,23 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM2">
+        <v>91</v>
+      </c>
+      <c r="AM2" s="0">
         <v>0</v>
       </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
+      <c r="AN2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="AO2" t="s" s="0">
+        <v>99</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>17</v>
@@ -1054,7 +1121,7 @@
         <v>48</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AT2" s="4" t="s">
         <v>17</v>
@@ -1063,7 +1130,7 @@
         <v>48</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>48</v>
@@ -1072,7 +1139,7 @@
         <v>48</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>17</v>
@@ -1081,7 +1148,7 @@
         <v>48</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>48</v>
@@ -1104,28 +1171,28 @@
       <c r="C3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>84</v>
+      <c r="F3" t="s" s="0">
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1137,8 +1204,8 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
-        <v>17</v>
+      <c r="O3" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
@@ -1151,7 +1218,7 @@
       <c r="C4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1160,16 +1227,16 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1181,7 +1248,7 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1195,28 +1262,28 @@
       <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>85</v>
+      <c r="F5" t="s" s="0">
+        <v>92</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1228,8 +1295,8 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
-        <v>17</v>
+      <c r="O5" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
@@ -1243,28 +1310,31 @@
       <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>111</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1273,8 +1343,8 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
-        <v>48</v>
+      <c r="O6" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
@@ -1287,14 +1357,14 @@
       <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>82</v>
+      <c r="F7" t="s" s="0">
+        <v>94</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1302,16 +1372,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1320,7 +1390,7 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1334,7 +1404,7 @@
       <c r="C8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1343,19 +1413,19 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1364,7 +1434,7 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1378,28 +1448,31 @@
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F9" t="s" s="0">
+        <v>95</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1408,7 +1481,7 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1422,7 +1495,7 @@
       <c r="C10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1431,28 +1504,28 @@
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1466,28 +1539,31 @@
       <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F11" t="s" s="0">
+        <v>101</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="s" s="0">
         <v>80</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1496,7 +1572,7 @@
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -1510,28 +1586,31 @@
       <c r="C12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F12" t="s" s="0">
+        <v>102</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1540,7 +1619,7 @@
       <c r="N12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -1554,29 +1633,32 @@
       <c r="C13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F13" t="s" s="0">
+        <v>96</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
-        <v>66</v>
+      <c r="L13" t="s" s="0">
+        <v>41</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>44</v>
@@ -1584,7 +1666,7 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1598,28 +1680,31 @@
       <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F14" t="s" s="0">
+        <v>103</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1628,7 +1713,7 @@
       <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -1642,31 +1727,31 @@
       <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>83</v>
+      <c r="F15" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1675,7 +1760,7 @@
       <c r="N15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1689,28 +1774,31 @@
       <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F16" t="s" s="0">
+        <v>104</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="s" s="0">
         <v>80</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1719,7 +1807,7 @@
       <c r="N16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -1733,28 +1821,31 @@
       <c r="C17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F17" t="s" s="0">
+        <v>97</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1763,7 +1854,7 @@
       <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1777,28 +1868,31 @@
       <c r="C18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F18" t="s" s="0">
+        <v>105</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1807,7 +1901,7 @@
       <c r="N18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" t="s" s="0">
         <v>48</v>
       </c>
     </row>
